--- a/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-22.xlsx
+++ b/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-22.xlsx
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.42</v>
+        <v>1420</v>
       </c>
       <c r="C2" t="n">
         <v>49</v>
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.355</v>
+        <v>5355</v>
       </c>
       <c r="C3" t="n">
         <v>97</v>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.707999999999999</v>
+        <v>6708</v>
       </c>
       <c r="C4" t="n">
         <v>247</v>
@@ -489,7 +489,7 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>1.588</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.428</v>
+        <v>2428</v>
       </c>
       <c r="C6" t="n">
         <v>69</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.615</v>
+        <v>9615</v>
       </c>
       <c r="C7" t="n">
         <v>317</v>
@@ -573,7 +573,7 @@
         <v>170</v>
       </c>
       <c r="H7" t="n">
-        <v>1.974</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="8">
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.392</v>
+        <v>198392</v>
       </c>
       <c r="C8" t="n">
-        <v>3.026</v>
+        <v>3026</v>
       </c>
       <c r="D8" t="n">
-        <v>2.411</v>
+        <v>2411</v>
       </c>
       <c r="E8" t="n">
         <v>218</v>
@@ -598,10 +598,10 @@
         <v>397</v>
       </c>
       <c r="G8" t="n">
-        <v>3.892</v>
+        <v>3892</v>
       </c>
       <c r="H8" t="n">
-        <v>25.101</v>
+        <v>25101</v>
       </c>
     </row>
     <row r="9">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.186</v>
+        <v>4186</v>
       </c>
       <c r="C9" t="n">
         <v>234</v>
@@ -629,7 +629,7 @@
         <v>52</v>
       </c>
       <c r="H9" t="n">
-        <v>1.641</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="10">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.355</v>
+        <v>4355</v>
       </c>
       <c r="C10" t="n">
         <v>145</v>
@@ -657,7 +657,7 @@
         <v>33</v>
       </c>
       <c r="H10" t="n">
-        <v>1.287</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.181</v>
+        <v>2181</v>
       </c>
       <c r="C11" t="n">
         <v>22</v>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.157999999999999</v>
+        <v>5158</v>
       </c>
       <c r="C12" t="n">
         <v>247</v>
@@ -713,7 +713,7 @@
         <v>35</v>
       </c>
       <c r="H12" t="n">
-        <v>1.793</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="13">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.009</v>
+        <v>3009</v>
       </c>
       <c r="C13" t="n">
         <v>40</v>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.437</v>
+        <v>1437</v>
       </c>
       <c r="C15" t="n">
         <v>52</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.352</v>
+        <v>1352</v>
       </c>
       <c r="C17" t="n">
         <v>17</v>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>246.963</v>
+        <v>246963</v>
       </c>
       <c r="C18" t="n">
-        <v>4.608000000000001</v>
+        <v>4608</v>
       </c>
       <c r="D18" t="n">
-        <v>3.71</v>
+        <v>3710</v>
       </c>
       <c r="E18" t="n">
         <v>399</v>
@@ -878,10 +878,10 @@
         <v>499</v>
       </c>
       <c r="G18" t="n">
-        <v>4.502</v>
+        <v>4502</v>
       </c>
       <c r="H18" t="n">
-        <v>37.064</v>
+        <v>37064</v>
       </c>
     </row>
   </sheetData>
